--- a/data_file/여행지 라벨.xlsx
+++ b/data_file/여행지 라벨.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="241">
   <si>
     <t>나라</t>
   </si>
@@ -28,6 +28,288 @@
     <t>유형</t>
   </si>
   <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>그리피스 천문대</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Griffith Observatory</t>
+  </si>
+  <si>
+    <t>건축물</t>
+  </si>
+  <si>
+    <t>자유의 여신상</t>
+  </si>
+  <si>
+    <t>Statue of Liberty</t>
+  </si>
+  <si>
+    <t>조형물</t>
+  </si>
+  <si>
+    <t>호주</t>
+  </si>
+  <si>
+    <t>시드니 오페라 하우스</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Sydney Opera House</t>
+  </si>
+  <si>
+    <t>랜드마크</t>
+  </si>
+  <si>
+    <t>브라질</t>
+  </si>
+  <si>
+    <t>브라질 예수상</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Corcovado</t>
+  </si>
+  <si>
+    <t>셀라론 계단</t>
+  </si>
+  <si>
+    <t>Escadaria Selaron</t>
+  </si>
+  <si>
+    <t>캄보디아</t>
+  </si>
+  <si>
+    <t>앙코르 와트</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Angkor Wat</t>
+  </si>
+  <si>
+    <t>유적</t>
+  </si>
+  <si>
+    <t>칠레</t>
+  </si>
+  <si>
+    <t>모아이 석상</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Easter Island</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>광저우 타워</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Canton Tower</t>
+  </si>
+  <si>
+    <t>병마용</t>
+  </si>
+  <si>
+    <t>qin terracotta warriors</t>
+  </si>
+  <si>
+    <t>고대유적</t>
+  </si>
+  <si>
+    <t>만리장성</t>
+  </si>
+  <si>
+    <t>The Great Wall</t>
+  </si>
+  <si>
+    <t>자금성</t>
+  </si>
+  <si>
+    <t>Forbidden City</t>
+  </si>
+  <si>
+    <t>포탈라 궁</t>
+  </si>
+  <si>
+    <t>Potala Palace</t>
+  </si>
+  <si>
+    <t>체코</t>
+  </si>
+  <si>
+    <t>프라하 구시가</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Staromestske namesti</t>
+  </si>
+  <si>
+    <t>이집트</t>
+  </si>
+  <si>
+    <t>카르나크 신전</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Temple of Karnak</t>
+  </si>
+  <si>
+    <t>멤논의 거상</t>
+  </si>
+  <si>
+    <t>Colossi of Memnon</t>
+  </si>
+  <si>
+    <t>기념물</t>
+  </si>
+  <si>
+    <t>피라미드</t>
+  </si>
+  <si>
+    <t>Egypt Pyramid</t>
+  </si>
+  <si>
+    <t>아부 심벨</t>
+  </si>
+  <si>
+    <t>abu simbel</t>
+  </si>
+  <si>
+    <t>영국</t>
+  </si>
+  <si>
+    <t>영국 스톤헨지</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Stonehenge</t>
+  </si>
+  <si>
+    <t>타워브리지</t>
+  </si>
+  <si>
+    <t>Tower Bridge</t>
+  </si>
+  <si>
+    <t>런던 세인트 폴 대성당</t>
+  </si>
+  <si>
+    <t>St. Paul's Cathedral</t>
+  </si>
+  <si>
+    <t>프랑스</t>
+  </si>
+  <si>
+    <t>루브르 박물관</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Louvre Museum</t>
+  </si>
+  <si>
+    <t>에펠 탑</t>
+  </si>
+  <si>
+    <t>Eiffel Tower</t>
+  </si>
+  <si>
+    <t>노틀담 성당</t>
+  </si>
+  <si>
+    <t>Cathedrale Notre-Dame de Paris</t>
+  </si>
+  <si>
+    <t>개선문</t>
+  </si>
+  <si>
+    <t>Arc de Triomphe</t>
+  </si>
+  <si>
+    <t>생트 샤펠</t>
+  </si>
+  <si>
+    <t>Sainte-Chapelle</t>
+  </si>
+  <si>
+    <t>물랑루즈</t>
+  </si>
+  <si>
+    <t>Moulin Rouge</t>
+  </si>
+  <si>
+    <t>파리 시청사</t>
+  </si>
+  <si>
+    <t>Hotel de Ville</t>
+  </si>
+  <si>
+    <t>독일</t>
+  </si>
+  <si>
+    <t>노이슈반슈타인 성</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Neuschwanstein</t>
+  </si>
+  <si>
+    <t>브란덴부르크 문</t>
+  </si>
+  <si>
+    <t>Brandenburg Gate</t>
+  </si>
+  <si>
+    <t>베를린 대성당</t>
+  </si>
+  <si>
+    <t>Berliner Dom</t>
+  </si>
+  <si>
+    <t>함부르크 시청사</t>
+  </si>
+  <si>
+    <t>Hamburg Town Hall</t>
+  </si>
+  <si>
+    <t>쾰른 대성당</t>
+  </si>
+  <si>
+    <t>Cologne Cathedral</t>
+  </si>
+  <si>
+    <t>플뢴라인</t>
+  </si>
+  <si>
+    <t>Rothenburg</t>
+  </si>
+  <si>
     <t>그리스</t>
   </si>
   <si>
@@ -40,7 +322,331 @@
     <t>Santorini</t>
   </si>
   <si>
-    <t>건축물</t>
+    <t>인도</t>
+  </si>
+  <si>
+    <t>게이트웨이 오브 인디아</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Gateway of India</t>
+  </si>
+  <si>
+    <t>꾸뜹 미나르</t>
+  </si>
+  <si>
+    <t>Qutub Minar</t>
+  </si>
+  <si>
+    <t>건물</t>
+  </si>
+  <si>
+    <t>타지마할</t>
+  </si>
+  <si>
+    <t>Taj Mahal</t>
+  </si>
+  <si>
+    <t>황금 사원</t>
+  </si>
+  <si>
+    <t>Golden Temple</t>
+  </si>
+  <si>
+    <t>인도네시아</t>
+  </si>
+  <si>
+    <t>보로부두르</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Borobudur</t>
+  </si>
+  <si>
+    <t>이스라엘</t>
+  </si>
+  <si>
+    <t>통곡의 벽</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Western Wall</t>
+  </si>
+  <si>
+    <t>다윗 망대</t>
+  </si>
+  <si>
+    <t>Tower of David</t>
+  </si>
+  <si>
+    <t>역사박물관</t>
+  </si>
+  <si>
+    <t>이탈리아</t>
+  </si>
+  <si>
+    <t>콜로세움</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Colosseum</t>
+  </si>
+  <si>
+    <t>트레비 분수</t>
+  </si>
+  <si>
+    <t>Trevi Fountain</t>
+  </si>
+  <si>
+    <t>로마 판테온</t>
+  </si>
+  <si>
+    <t>Pantheon</t>
+  </si>
+  <si>
+    <t>종교시설</t>
+  </si>
+  <si>
+    <t>진실의 입</t>
+  </si>
+  <si>
+    <t>Bocca della Verita</t>
+  </si>
+  <si>
+    <t>콘스탄티누스 개선문</t>
+  </si>
+  <si>
+    <t>Arco di Costantino</t>
+  </si>
+  <si>
+    <t>산 마르코 대성당</t>
+  </si>
+  <si>
+    <t>Basilica di San Marco</t>
+  </si>
+  <si>
+    <t>리알토 다리</t>
+  </si>
+  <si>
+    <t>Ponte di Rialto</t>
+  </si>
+  <si>
+    <t>산 마르코 종탑</t>
+  </si>
+  <si>
+    <t>Campanile di San Marco</t>
+  </si>
+  <si>
+    <t>피사의 사탑</t>
+  </si>
+  <si>
+    <t>Leaning Tower of Pisa</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>오사카 성</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Osaka Castle</t>
+  </si>
+  <si>
+    <t>성곽</t>
+  </si>
+  <si>
+    <t>금각사</t>
+  </si>
+  <si>
+    <t>Kinkakuji Temple</t>
+  </si>
+  <si>
+    <t>요르단</t>
+  </si>
+  <si>
+    <t>페트라</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>레바논</t>
+  </si>
+  <si>
+    <t>바알베크 신전</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Baalbek</t>
+  </si>
+  <si>
+    <t>말레이시아</t>
+  </si>
+  <si>
+    <t>페트로나스 트윈 타워</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Petronas Twin Tower</t>
+  </si>
+  <si>
+    <t>쿠 콩시</t>
+  </si>
+  <si>
+    <t>Penang temple</t>
+  </si>
+  <si>
+    <t>모로코</t>
+  </si>
+  <si>
+    <t>쿠투비아 모스크</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Koutoubia Mosque</t>
+  </si>
+  <si>
+    <t>역사유적</t>
+  </si>
+  <si>
+    <t>멕시코</t>
+  </si>
+  <si>
+    <t>테우티우아칸</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Teotihuacan</t>
+  </si>
+  <si>
+    <t>치첸이트사</t>
+  </si>
+  <si>
+    <t>Chichen Itza</t>
+  </si>
+  <si>
+    <t>미얀마</t>
+  </si>
+  <si>
+    <t>아난다 사원</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Ananda Temple</t>
+  </si>
+  <si>
+    <t>쉐지곤 사원</t>
+  </si>
+  <si>
+    <t>Shwezigon</t>
+  </si>
+  <si>
+    <t>성지</t>
+  </si>
+  <si>
+    <t>담마얀지 사원</t>
+  </si>
+  <si>
+    <t>Dhammayangyi Temple</t>
+  </si>
+  <si>
+    <t>쉐다곤 파고다</t>
+  </si>
+  <si>
+    <t>Shwedagon Pagoda</t>
+  </si>
+  <si>
+    <t>페루</t>
+  </si>
+  <si>
+    <t>마추픽추</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Machu Picchu</t>
+  </si>
+  <si>
+    <t>사우디아라비아</t>
+  </si>
+  <si>
+    <t>메카</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Mecca</t>
+  </si>
+  <si>
+    <t>싱가포르</t>
+  </si>
+  <si>
+    <t>가든스 바이 더 베이</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Gardens by the Bay</t>
+  </si>
+  <si>
+    <t>스페인</t>
+  </si>
+  <si>
+    <t>사그라다 파밀리아</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sagrada Familia</t>
+  </si>
+  <si>
+    <t>까사 바트요</t>
+  </si>
+  <si>
+    <t>Casa Batllo</t>
+  </si>
+  <si>
+    <t>구엘 공원</t>
+  </si>
+  <si>
+    <t>Parc Guell</t>
+  </si>
+  <si>
+    <t>공원</t>
+  </si>
+  <si>
+    <t>메스키타</t>
+  </si>
+  <si>
+    <t>Cordoba Mezquita</t>
   </si>
   <si>
     <t>대만</t>
@@ -61,253 +667,58 @@
     <t>Taipei Temple</t>
   </si>
   <si>
-    <t>성지</t>
-  </si>
-  <si>
-    <t>독일</t>
-  </si>
-  <si>
-    <t>노이슈반슈타인 성</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Neuschwanstein</t>
-  </si>
-  <si>
-    <t>브란덴부르크 문</t>
-  </si>
-  <si>
-    <t>Brandenburg Gate</t>
-  </si>
-  <si>
-    <t>베를린 대성당</t>
-  </si>
-  <si>
-    <t>Berliner Dom</t>
-  </si>
-  <si>
-    <t>함부르크 시청사</t>
-  </si>
-  <si>
-    <t>Hamburg Town Hall</t>
-  </si>
-  <si>
-    <t>쾰른 대성당</t>
-  </si>
-  <si>
-    <t>Cologne Cathedral</t>
-  </si>
-  <si>
-    <t>플뢴라인</t>
-  </si>
-  <si>
-    <t>Rothenburg</t>
-  </si>
-  <si>
-    <t>레바논</t>
-  </si>
-  <si>
-    <t>바알베크 신전</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Baalbek</t>
-  </si>
-  <si>
-    <t>유적</t>
-  </si>
-  <si>
-    <t>말레이시아</t>
-  </si>
-  <si>
-    <t>페트로나스 트윈 타워</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Petronas Twin Tower</t>
-  </si>
-  <si>
-    <t>쿠 콩시</t>
-  </si>
-  <si>
-    <t>Penang temple</t>
-  </si>
-  <si>
-    <t>멕시코</t>
-  </si>
-  <si>
-    <t>테우티우아칸</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Teotihuacan</t>
-  </si>
-  <si>
-    <t>치첸이트사</t>
-  </si>
-  <si>
-    <t>Chichen Itza</t>
-  </si>
-  <si>
-    <t>모로코</t>
-  </si>
-  <si>
-    <t>쿠투비아 모스크</t>
-  </si>
-  <si>
-    <t>Marrakech</t>
-  </si>
-  <si>
-    <t>Koutoubia Mosque</t>
-  </si>
-  <si>
-    <t>역사유적</t>
-  </si>
-  <si>
-    <t>미국</t>
-  </si>
-  <si>
-    <t>그리피스 천문대</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> America</t>
-  </si>
-  <si>
-    <t>Griffith Observatory</t>
-  </si>
-  <si>
-    <t>자유의 여신상</t>
-  </si>
-  <si>
-    <t>America</t>
-  </si>
-  <si>
-    <t>Statue of Liberty</t>
-  </si>
-  <si>
-    <t>조형물</t>
-  </si>
-  <si>
-    <t>미얀마</t>
-  </si>
-  <si>
-    <t>아난다 사원</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Ananda Temple</t>
-  </si>
-  <si>
-    <t>쉐지곤 사원</t>
-  </si>
-  <si>
-    <t>Shwezigon</t>
-  </si>
-  <si>
-    <t>담마얀지 사원</t>
-  </si>
-  <si>
-    <t>Dhammayangyi Temple</t>
-  </si>
-  <si>
-    <t>쉐다곤 파고다</t>
-  </si>
-  <si>
-    <t>Shwedagon Pagoda</t>
-  </si>
-  <si>
-    <t>브라질</t>
-  </si>
-  <si>
-    <t>브라질 예수상</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Corcovado</t>
-  </si>
-  <si>
-    <t>랜드마크</t>
-  </si>
-  <si>
-    <t>셀라론 계단</t>
-  </si>
-  <si>
-    <t>Escadaria Selaron</t>
-  </si>
-  <si>
-    <t>사우디아라비아</t>
-  </si>
-  <si>
-    <t>메카</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Mecca</t>
-  </si>
-  <si>
-    <t>스페인</t>
-  </si>
-  <si>
-    <t>사그라다 파밀리아</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Sagrada Familia</t>
-  </si>
-  <si>
-    <t>종교시설</t>
-  </si>
-  <si>
-    <t>까사 바트요</t>
-  </si>
-  <si>
-    <t>Casa Batllo</t>
-  </si>
-  <si>
-    <t>건물</t>
-  </si>
-  <si>
-    <t>구엘 공원</t>
-  </si>
-  <si>
-    <t>Parc Guell</t>
-  </si>
-  <si>
-    <t>공원</t>
-  </si>
-  <si>
-    <t>메스키타</t>
-  </si>
-  <si>
-    <t>Cordoba Mezquita</t>
-  </si>
-  <si>
-    <t>싱가포르</t>
-  </si>
-  <si>
-    <t>가든스 바이 더 베이</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Gardens by the Bay</t>
+    <t>태국</t>
+  </si>
+  <si>
+    <t>진리의 성전</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The Sanctuary Of Truth</t>
+  </si>
+  <si>
+    <t>방콕 왕궁</t>
+  </si>
+  <si>
+    <t>The Grand Palace</t>
+  </si>
+  <si>
+    <t>왓 아룬</t>
+  </si>
+  <si>
+    <t>Wat Arun</t>
+  </si>
+  <si>
+    <t>에메랄드 사원</t>
+  </si>
+  <si>
+    <t>Wat Phra Kaew</t>
+  </si>
+  <si>
+    <t>터키</t>
+  </si>
+  <si>
+    <t>술탄 아흐메트 모스크</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Blue Mosque</t>
+  </si>
+  <si>
+    <t>예레바탄 지하궁전</t>
+  </si>
+  <si>
+    <t>Basilica Cistern</t>
+  </si>
+  <si>
+    <t>하드리아누스의 문</t>
+  </si>
+  <si>
+    <t>Hadrian's Gate</t>
   </si>
   <si>
     <t>아랍에미리트</t>
@@ -323,427 +734,13 @@
   </si>
   <si>
     <t>전망시설</t>
-  </si>
-  <si>
-    <t>영국</t>
-  </si>
-  <si>
-    <t>영국 스톤헨지</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Stonehenge</t>
-  </si>
-  <si>
-    <t>타워브리지</t>
-  </si>
-  <si>
-    <t>Tower Bridge</t>
-  </si>
-  <si>
-    <t>런던 세인트 폴 대성당</t>
-  </si>
-  <si>
-    <t>St. Paul's Cathedral</t>
-  </si>
-  <si>
-    <t>요르단</t>
-  </si>
-  <si>
-    <t>페트라</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Petra</t>
-  </si>
-  <si>
-    <t>이스라엘</t>
-  </si>
-  <si>
-    <t>통곡의 벽</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Western Wall</t>
-  </si>
-  <si>
-    <t>고대유적</t>
-  </si>
-  <si>
-    <t>다윗 망대</t>
-  </si>
-  <si>
-    <t>Tower of David</t>
-  </si>
-  <si>
-    <t>역사박물관</t>
-  </si>
-  <si>
-    <t>이집트</t>
-  </si>
-  <si>
-    <t>카르나크 신전</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Temple of Karnak</t>
-  </si>
-  <si>
-    <t>멤논의 거상</t>
-  </si>
-  <si>
-    <t>Colossi of Memnon</t>
-  </si>
-  <si>
-    <t>기념물</t>
-  </si>
-  <si>
-    <t>피라미드</t>
-  </si>
-  <si>
-    <t>Egypt Pyramid</t>
-  </si>
-  <si>
-    <t>아부 심벨</t>
-  </si>
-  <si>
-    <t>abu simbel</t>
-  </si>
-  <si>
-    <t>이탈리아</t>
-  </si>
-  <si>
-    <t>콜로세움</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Colosseum</t>
-  </si>
-  <si>
-    <t>트레비 분수</t>
-  </si>
-  <si>
-    <t>Trevi Fountain</t>
-  </si>
-  <si>
-    <t>로마 판테온</t>
-  </si>
-  <si>
-    <t>Pantheon</t>
-  </si>
-  <si>
-    <t>진실의 입</t>
-  </si>
-  <si>
-    <t>Bocca della Verita</t>
-  </si>
-  <si>
-    <t>콘스탄티누스 개선문</t>
-  </si>
-  <si>
-    <t>Arco di Costantino</t>
-  </si>
-  <si>
-    <t>산 마르코 대성당</t>
-  </si>
-  <si>
-    <t>Basilica di San Marco</t>
-  </si>
-  <si>
-    <t>리알토 다리</t>
-  </si>
-  <si>
-    <t>Ponte di Rialto</t>
-  </si>
-  <si>
-    <t>산 마르코 종탑</t>
-  </si>
-  <si>
-    <t>Campanile di San Marco</t>
-  </si>
-  <si>
-    <t>피사의 사탑</t>
-  </si>
-  <si>
-    <t>Leaning Tower of Pisa</t>
-  </si>
-  <si>
-    <t>인도</t>
-  </si>
-  <si>
-    <t>게이트웨이 오브 인디아</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Gateway of India</t>
-  </si>
-  <si>
-    <t>꾸뜹 미나르</t>
-  </si>
-  <si>
-    <t>Qutub Minar</t>
-  </si>
-  <si>
-    <t>타지마할</t>
-  </si>
-  <si>
-    <t>Taj Mahal</t>
-  </si>
-  <si>
-    <t>황금 사원</t>
-  </si>
-  <si>
-    <t>Golden Temple</t>
-  </si>
-  <si>
-    <t>인도네시아</t>
-  </si>
-  <si>
-    <t>보로부두르</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Borobudur</t>
-  </si>
-  <si>
-    <t>일본</t>
-  </si>
-  <si>
-    <t>오사카 성</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Osaka Castle</t>
-  </si>
-  <si>
-    <t>성곽</t>
-  </si>
-  <si>
-    <t>금각사</t>
-  </si>
-  <si>
-    <t>Kinkakuji Temple</t>
-  </si>
-  <si>
-    <t>중국</t>
-  </si>
-  <si>
-    <t>광저우 타워</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Canton Tower</t>
-  </si>
-  <si>
-    <t>병마용</t>
-  </si>
-  <si>
-    <t>qin terracotta warriors</t>
-  </si>
-  <si>
-    <t>만리장성</t>
-  </si>
-  <si>
-    <t>The Great Wall</t>
-  </si>
-  <si>
-    <t>자금성</t>
-  </si>
-  <si>
-    <t>Forbidden City</t>
-  </si>
-  <si>
-    <t>포탈라 궁</t>
-  </si>
-  <si>
-    <t>Potala Palace</t>
-  </si>
-  <si>
-    <t>체코</t>
-  </si>
-  <si>
-    <t>프라하 구시가</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Staromestske namesti</t>
-  </si>
-  <si>
-    <t>칠레</t>
-  </si>
-  <si>
-    <t>모아이 석상</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Easter Island</t>
-  </si>
-  <si>
-    <t>캄보디아</t>
-  </si>
-  <si>
-    <t>앙코르 와트</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Angkor Wat</t>
-  </si>
-  <si>
-    <t>태국</t>
-  </si>
-  <si>
-    <t>진리의 성전</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>The Sanctuary Of Truth</t>
-  </si>
-  <si>
-    <t>방콕 왕궁</t>
-  </si>
-  <si>
-    <t>The Grand Palace</t>
-  </si>
-  <si>
-    <t>왓 아룬</t>
-  </si>
-  <si>
-    <t>Wat Arun</t>
-  </si>
-  <si>
-    <t>에메랄드 사원</t>
-  </si>
-  <si>
-    <t>Wat Phra Kaew</t>
-  </si>
-  <si>
-    <t>터키</t>
-  </si>
-  <si>
-    <t>술탄 아흐메트 모스크</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Blue Mosque</t>
-  </si>
-  <si>
-    <t>예레바탄 지하궁전</t>
-  </si>
-  <si>
-    <t>Basilica Cistern</t>
-  </si>
-  <si>
-    <t>하드리아누스의 문</t>
-  </si>
-  <si>
-    <t>Hadrian's Gate</t>
-  </si>
-  <si>
-    <t>페루</t>
-  </si>
-  <si>
-    <t>마추픽추</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Machu Picchu</t>
-  </si>
-  <si>
-    <t>프랑스</t>
-  </si>
-  <si>
-    <t>루브르 박물관</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Louvre Museum</t>
-  </si>
-  <si>
-    <t>에펠 탑</t>
-  </si>
-  <si>
-    <t>Eiffel Tower</t>
-  </si>
-  <si>
-    <t>노틀담 성당</t>
-  </si>
-  <si>
-    <t>Cathedrale Notre-Dame de Paris</t>
-  </si>
-  <si>
-    <t>개선문</t>
-  </si>
-  <si>
-    <t>Arc de Triomphe</t>
-  </si>
-  <si>
-    <t>생트 샤펠</t>
-  </si>
-  <si>
-    <t>Sainte-Chapelle</t>
-  </si>
-  <si>
-    <t>물랑루즈</t>
-  </si>
-  <si>
-    <t>Moulin Rouge</t>
-  </si>
-  <si>
-    <t>파리 시청사</t>
-  </si>
-  <si>
-    <t>Hotel de Ville</t>
-  </si>
-  <si>
-    <t>호주</t>
-  </si>
-  <si>
-    <t>시드니 오페라 하우스</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Sydney Opera House</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -760,11 +757,20 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FFFF0000"/>
+      <name val="Gothic"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF0000FF"/>
       <name val="Gothic"/>
       <scheme val="minor"/>
     </font>
@@ -783,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -797,6 +803,12 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,10 +1057,10 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1057,189 +1069,201 @@
     </row>
     <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
@@ -1247,90 +1271,99 @@
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
@@ -1343,14 +1376,11 @@
       <c r="C19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
@@ -1367,10 +1397,7 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
@@ -1387,24 +1414,21 @@
         <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -1412,133 +1436,118 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>9</v>
@@ -1546,73 +1555,67 @@
     </row>
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>9</v>
@@ -1620,16 +1623,16 @@
     </row>
     <row r="34" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>9</v>
@@ -1637,267 +1640,267 @@
     </row>
     <row r="35" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>122</v>
+        <v>105</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>144</v>
+        <v>127</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E47" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>9</v>
@@ -1905,16 +1908,16 @@
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>9</v>
@@ -1922,16 +1925,16 @@
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>154</v>
+        <v>127</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>9</v>
@@ -1939,130 +1942,121 @@
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>158</v>
+        <v>127</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>89</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>164</v>
+      <c r="D54" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>9</v>
@@ -2070,443 +2064,461 @@
     </row>
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="C60" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C71" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="E81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="82" ht="16.5" customHeight="1"/>
